--- a/testCases/Cache/cache_data.xlsx
+++ b/testCases/Cache/cache_data.xlsx
@@ -24,10 +24,10 @@
     <t>ServerName</t>
   </si>
   <si>
-    <t>cache-25</t>
+    <t>cache-18</t>
   </si>
   <si>
-    <t>cache-27</t>
+    <t>cache-19</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/testCases/Cache/cache_data.xlsx
+++ b/testCases/Cache/cache_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Exp</t>
   </si>
@@ -24,10 +24,346 @@
     <t>ServerName</t>
   </si>
   <si>
-    <t>cache-18</t>
-  </si>
-  <si>
-    <t>cache-19</t>
+    <t>user1111</t>
+  </si>
+  <si>
+    <t>user1112</t>
+  </si>
+  <si>
+    <t>user1113</t>
+  </si>
+  <si>
+    <t>user1114</t>
+  </si>
+  <si>
+    <t>user1115</t>
+  </si>
+  <si>
+    <t>user1116</t>
+  </si>
+  <si>
+    <t>user1117</t>
+  </si>
+  <si>
+    <t>user1118</t>
+  </si>
+  <si>
+    <t>user1119</t>
+  </si>
+  <si>
+    <t>user1120</t>
+  </si>
+  <si>
+    <t>user1121</t>
+  </si>
+  <si>
+    <t>user1122</t>
+  </si>
+  <si>
+    <t>user1123</t>
+  </si>
+  <si>
+    <t>user1124</t>
+  </si>
+  <si>
+    <t>user1125</t>
+  </si>
+  <si>
+    <t>user1126</t>
+  </si>
+  <si>
+    <t>user1127</t>
+  </si>
+  <si>
+    <t>user1128</t>
+  </si>
+  <si>
+    <t>user1129</t>
+  </si>
+  <si>
+    <t>user1130</t>
+  </si>
+  <si>
+    <t>user1131</t>
+  </si>
+  <si>
+    <t>user1132</t>
+  </si>
+  <si>
+    <t>user1133</t>
+  </si>
+  <si>
+    <t>user1134</t>
+  </si>
+  <si>
+    <t>user1135</t>
+  </si>
+  <si>
+    <t>user1136</t>
+  </si>
+  <si>
+    <t>user1137</t>
+  </si>
+  <si>
+    <t>user1138</t>
+  </si>
+  <si>
+    <t>user1139</t>
+  </si>
+  <si>
+    <t>user1140</t>
+  </si>
+  <si>
+    <t>user1141</t>
+  </si>
+  <si>
+    <t>user1142</t>
+  </si>
+  <si>
+    <t>user1143</t>
+  </si>
+  <si>
+    <t>user1144</t>
+  </si>
+  <si>
+    <t>user1145</t>
+  </si>
+  <si>
+    <t>user1146</t>
+  </si>
+  <si>
+    <t>user1147</t>
+  </si>
+  <si>
+    <t>user1148</t>
+  </si>
+  <si>
+    <t>user1149</t>
+  </si>
+  <si>
+    <t>user1150</t>
+  </si>
+  <si>
+    <t>user1151</t>
+  </si>
+  <si>
+    <t>user1152</t>
+  </si>
+  <si>
+    <t>user1153</t>
+  </si>
+  <si>
+    <t>user1154</t>
+  </si>
+  <si>
+    <t>user1155</t>
+  </si>
+  <si>
+    <t>user1156</t>
+  </si>
+  <si>
+    <t>user1157</t>
+  </si>
+  <si>
+    <t>user1158</t>
+  </si>
+  <si>
+    <t>user1159</t>
+  </si>
+  <si>
+    <t>user1160</t>
+  </si>
+  <si>
+    <t>user1161</t>
+  </si>
+  <si>
+    <t>user1162</t>
+  </si>
+  <si>
+    <t>user1163</t>
+  </si>
+  <si>
+    <t>user1164</t>
+  </si>
+  <si>
+    <t>user1165</t>
+  </si>
+  <si>
+    <t>user1166</t>
+  </si>
+  <si>
+    <t>user1167</t>
+  </si>
+  <si>
+    <t>user1168</t>
+  </si>
+  <si>
+    <t>user1169</t>
+  </si>
+  <si>
+    <t>user1170</t>
+  </si>
+  <si>
+    <t>user1171</t>
+  </si>
+  <si>
+    <t>user1172</t>
+  </si>
+  <si>
+    <t>user1173</t>
+  </si>
+  <si>
+    <t>user1174</t>
+  </si>
+  <si>
+    <t>user1175</t>
+  </si>
+  <si>
+    <t>user1176</t>
+  </si>
+  <si>
+    <t>user1177</t>
+  </si>
+  <si>
+    <t>user1178</t>
+  </si>
+  <si>
+    <t>user1179</t>
+  </si>
+  <si>
+    <t>user1180</t>
+  </si>
+  <si>
+    <t>user1181</t>
+  </si>
+  <si>
+    <t>user1182</t>
+  </si>
+  <si>
+    <t>user1183</t>
+  </si>
+  <si>
+    <t>user1184</t>
+  </si>
+  <si>
+    <t>user1185</t>
+  </si>
+  <si>
+    <t>user1186</t>
+  </si>
+  <si>
+    <t>user1187</t>
+  </si>
+  <si>
+    <t>user1188</t>
+  </si>
+  <si>
+    <t>user1189</t>
+  </si>
+  <si>
+    <t>user1190</t>
+  </si>
+  <si>
+    <t>user1191</t>
+  </si>
+  <si>
+    <t>user1192</t>
+  </si>
+  <si>
+    <t>user1193</t>
+  </si>
+  <si>
+    <t>user1194</t>
+  </si>
+  <si>
+    <t>user1195</t>
+  </si>
+  <si>
+    <t>user1196</t>
+  </si>
+  <si>
+    <t>user1197</t>
+  </si>
+  <si>
+    <t>user1198</t>
+  </si>
+  <si>
+    <t>user1199</t>
+  </si>
+  <si>
+    <t>user1200</t>
+  </si>
+  <si>
+    <t>user1201</t>
+  </si>
+  <si>
+    <t>user1202</t>
+  </si>
+  <si>
+    <t>user1203</t>
+  </si>
+  <si>
+    <t>user1204</t>
+  </si>
+  <si>
+    <t>user1205</t>
+  </si>
+  <si>
+    <t>user1206</t>
+  </si>
+  <si>
+    <t>user1207</t>
+  </si>
+  <si>
+    <t>user1208</t>
+  </si>
+  <si>
+    <t>user1209</t>
+  </si>
+  <si>
+    <t>user1210</t>
+  </si>
+  <si>
+    <t>user1211</t>
+  </si>
+  <si>
+    <t>user1212</t>
+  </si>
+  <si>
+    <t>user1213</t>
+  </si>
+  <si>
+    <t>user1214</t>
+  </si>
+  <si>
+    <t>user1215</t>
+  </si>
+  <si>
+    <t>user1216</t>
+  </si>
+  <si>
+    <t>user1217</t>
+  </si>
+  <si>
+    <t>user1218</t>
+  </si>
+  <si>
+    <t>user1219</t>
+  </si>
+  <si>
+    <t>user1220</t>
+  </si>
+  <si>
+    <t>user1221</t>
+  </si>
+  <si>
+    <t>user1222</t>
+  </si>
+  <si>
+    <t>user1223</t>
+  </si>
+  <si>
+    <t>user1224</t>
   </si>
 </sst>
 </file>
@@ -427,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,6 +794,566 @@
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testCases/Cache/cache_data.xlsx
+++ b/testCases/Cache/cache_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Exp</t>
   </si>
@@ -339,31 +339,10 @@
     <t>user1215</t>
   </si>
   <si>
-    <t>user1216</t>
-  </si>
-  <si>
-    <t>user1217</t>
-  </si>
-  <si>
-    <t>user1218</t>
-  </si>
-  <si>
-    <t>user1219</t>
-  </si>
-  <si>
-    <t>user1220</t>
-  </si>
-  <si>
-    <t>user1221</t>
-  </si>
-  <si>
-    <t>user1222</t>
-  </si>
-  <si>
-    <t>user1223</t>
-  </si>
-  <si>
-    <t>user1224</t>
+    <t>test-356</t>
+  </si>
+  <si>
+    <t>eyteyge</t>
   </si>
 </sst>
 </file>
@@ -454,13 +433,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,39 +1302,40 @@
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="A109" s="7"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="A111" s="7"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="A112" s="7"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="A113" s="7"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="A114" s="7"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A115" s="7"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
